--- a/biology/Mycologie/Nomen_nudum/Nomen_nudum.xlsx
+++ b/biology/Mycologie/Nomen_nudum/Nomen_nudum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'appellation nomen nudum (au pluriel nomina nuda) est une expression écrite latine (toujours donnée en italiques) appartenant au vocabulaire nomenclatural botanique et zoologique, relativement imprécise et souvent employée à la place de nomen invalidum. Elle désigne un nom de nouveau taxon frappé d'invalidité et ne pouvant servir de nom scientifique binominal, faute d'avoir été publié avec une description ni illustration adéquate.
 Le Code international de nomenclature zoologique en donne cette définition :
-Le Code international de nomenclature botanique en donne cette définition[1] :
+Le Code international de nomenclature botanique en donne cette définition :
 Cette expression fait référence à la célèbre sentence de Bernard de Cluny (citée par Umberto Eco dans Le Nom de la rose): « Stat rosa pristina nomine nomina nuda tenemus ». Cette phrase se place dans la querelle médiévale entre nominalistes et réalistes: quelle est la valeur d'un nom (substantif) si la chose (l'objet) qu'il désigne n'existe pas? En l'occurrence, à l'époque où les seules roses connues ne fleurissaient qu'au mois de mai, que désigne le nom « rose » pendant tous les mois où aucune rose n'existe? Un tel nom était appelé nomen nudum, c'est-à-dire « nom nu », ou peut-être plus exactement « nom vide », un nom qui ne désigne aucun objet existant. Un tel nom a-t-il vraiment un sens?
 Une autre expression insuffisamment codifiée est « nomen subnudum » désignant un nom dont la validité est douteuse ou critique, notamment l'absence de la diagnose latine ou la désignation du type. On utilisera simplement à la place nomen invalidum.
 On appelle donc nomen nudum, tout nom publié non accompagné d'un texte acceptable comme diagnose ou d'un élément équivalent (figure montrant des détails aidant à l'identification). Cette notion remonte à la seconde version du Code de Nomenclature (Vienne, 1905) où elle apparait explicitement dans un article (p. 26, dans l'énoncé de l'Art. 38). Elle en disparait très tôt, tout en continuant à être utilisée par les spécialistes jusqu'à nos jours.
